--- a/results/standard/UNEP-EGR-2024-top-shares.xlsx
+++ b/results/standard/UNEP-EGR-2024-top-shares.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rest of world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Least Developed Countries</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2323,7 @@
         <v>1990</v>
       </c>
       <c r="C134" t="n">
-        <v>8.35704210904062</v>
+        <v>8.35704210904063</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -2488,7 +2491,7 @@
         <v>2002</v>
       </c>
       <c r="C146" t="n">
-        <v>4.52887839511739</v>
+        <v>4.52887839511738</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
@@ -3244,7 +3247,7 @@
         <v>1990</v>
       </c>
       <c r="C200" t="n">
-        <v>42.5630586147673</v>
+        <v>38.7637683672484</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
@@ -3258,7 +3261,7 @@
         <v>1991</v>
       </c>
       <c r="C201" t="n">
-        <v>42.553438798742</v>
+        <v>38.7442612973111</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -3272,7 +3275,7 @@
         <v>1992</v>
       </c>
       <c r="C202" t="n">
-        <v>43.1438852556403</v>
+        <v>39.1828337729073</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -3286,7 +3289,7 @@
         <v>1993</v>
       </c>
       <c r="C203" t="n">
-        <v>42.9171962856575</v>
+        <v>38.9030802687283</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
@@ -3300,7 +3303,7 @@
         <v>1994</v>
       </c>
       <c r="C204" t="n">
-        <v>43.4098536168647</v>
+        <v>39.3001885914842</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -3314,7 +3317,7 @@
         <v>1995</v>
       </c>
       <c r="C205" t="n">
-        <v>43.2864642701888</v>
+        <v>39.1011109915416</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -3328,7 +3331,7 @@
         <v>1996</v>
       </c>
       <c r="C206" t="n">
-        <v>43.1387124335285</v>
+        <v>38.9203045890413</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -3342,7 +3345,7 @@
         <v>1997</v>
       </c>
       <c r="C207" t="n">
-        <v>45.9595293392111</v>
+        <v>41.8299775902782</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -3356,7 +3359,7 @@
         <v>1998</v>
       </c>
       <c r="C208" t="n">
-        <v>43.77787020548</v>
+        <v>39.3447522471926</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -3370,7 +3373,7 @@
         <v>1999</v>
       </c>
       <c r="C209" t="n">
-        <v>43.8870466046368</v>
+        <v>39.3530647838566</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -3384,7 +3387,7 @@
         <v>2000</v>
       </c>
       <c r="C210" t="n">
-        <v>43.6746012091523</v>
+        <v>39.0606482591828</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
@@ -3398,7 +3401,7 @@
         <v>2001</v>
       </c>
       <c r="C211" t="n">
-        <v>43.6484433295165</v>
+        <v>38.9400841179826</v>
       </c>
       <c r="D211" t="s">
         <v>13</v>
@@ -3412,7 +3415,7 @@
         <v>2002</v>
       </c>
       <c r="C212" t="n">
-        <v>44.2975665353474</v>
+        <v>39.3479806090042</v>
       </c>
       <c r="D212" t="s">
         <v>13</v>
@@ -3426,7 +3429,7 @@
         <v>2003</v>
       </c>
       <c r="C213" t="n">
-        <v>43.2563822942186</v>
+        <v>38.3432579523417</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -3440,7 +3443,7 @@
         <v>2004</v>
       </c>
       <c r="C214" t="n">
-        <v>42.6666502579263</v>
+        <v>37.8210082617602</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -3454,7 +3457,7 @@
         <v>2005</v>
       </c>
       <c r="C215" t="n">
-        <v>42.2416900691858</v>
+        <v>37.4787134392069</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
@@ -3468,7 +3471,7 @@
         <v>2006</v>
       </c>
       <c r="C216" t="n">
-        <v>42.7286984886606</v>
+        <v>37.9403698680684</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -3482,7 +3485,7 @@
         <v>2007</v>
       </c>
       <c r="C217" t="n">
-        <v>41.8391632886978</v>
+        <v>36.8489819116014</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
@@ -3496,7 +3499,7 @@
         <v>2008</v>
       </c>
       <c r="C218" t="n">
-        <v>42.361311089925</v>
+        <v>37.0173468004213</v>
       </c>
       <c r="D218" t="s">
         <v>13</v>
@@ -3510,7 +3513,7 @@
         <v>2009</v>
       </c>
       <c r="C219" t="n">
-        <v>42.6926544048983</v>
+        <v>37.0195044582127</v>
       </c>
       <c r="D219" t="s">
         <v>13</v>
@@ -3524,7 +3527,7 @@
         <v>2010</v>
       </c>
       <c r="C220" t="n">
-        <v>42.0844145609528</v>
+        <v>36.2743784062949</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
@@ -3538,7 +3541,7 @@
         <v>2011</v>
       </c>
       <c r="C221" t="n">
-        <v>42.4931751148668</v>
+        <v>36.5503949469075</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
@@ -3552,7 +3555,7 @@
         <v>2012</v>
       </c>
       <c r="C222" t="n">
-        <v>42.454237588451</v>
+        <v>36.693153331218</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
@@ -3566,7 +3569,7 @@
         <v>2013</v>
       </c>
       <c r="C223" t="n">
-        <v>41.844131601848</v>
+        <v>36.1167830693109</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
@@ -3580,7 +3583,7 @@
         <v>2014</v>
       </c>
       <c r="C224" t="n">
-        <v>42.1200861717165</v>
+        <v>36.54188229846</v>
       </c>
       <c r="D224" t="s">
         <v>13</v>
@@ -3594,7 +3597,7 @@
         <v>2015</v>
       </c>
       <c r="C225" t="n">
-        <v>42.3912679338767</v>
+        <v>36.9553166062791</v>
       </c>
       <c r="D225" t="s">
         <v>13</v>
@@ -3608,7 +3611,7 @@
         <v>2016</v>
       </c>
       <c r="C226" t="n">
-        <v>42.0156984205376</v>
+        <v>36.4487413572108</v>
       </c>
       <c r="D226" t="s">
         <v>13</v>
@@ -3622,7 +3625,7 @@
         <v>2017</v>
       </c>
       <c r="C227" t="n">
-        <v>42.0239688305695</v>
+        <v>36.4217457942809</v>
       </c>
       <c r="D227" t="s">
         <v>13</v>
@@ -3636,7 +3639,7 @@
         <v>2018</v>
       </c>
       <c r="C228" t="n">
-        <v>41.1889526288062</v>
+        <v>35.8267734937736</v>
       </c>
       <c r="D228" t="s">
         <v>13</v>
@@ -3650,7 +3653,7 @@
         <v>2019</v>
       </c>
       <c r="C229" t="n">
-        <v>41.5271138626304</v>
+        <v>36.3057009835596</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
@@ -3664,7 +3667,7 @@
         <v>2020</v>
       </c>
       <c r="C230" t="n">
-        <v>40.7915187553526</v>
+        <v>35.2888600911516</v>
       </c>
       <c r="D230" t="s">
         <v>13</v>
@@ -3678,7 +3681,7 @@
         <v>2021</v>
       </c>
       <c r="C231" t="n">
-        <v>40.1961346624182</v>
+        <v>34.8014341882115</v>
       </c>
       <c r="D231" t="s">
         <v>13</v>
@@ -3692,9 +3695,471 @@
         <v>2022</v>
       </c>
       <c r="C232" t="n">
-        <v>40.1599851134662</v>
+        <v>34.8117131486663</v>
       </c>
       <c r="D232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>20</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.79929024751891</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.80917750143093</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.96105148273297</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>20</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.01411601692929</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>20</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.10966502538045</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.18535327864715</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>20</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.21840784448722</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.12955174893285</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.43311795828744</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>20</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.53398182078016</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>20</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.61395294996954</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>20</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.70835921153387</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.94958592634323</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.91312434187694</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.84564199616607</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.76297662997885</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.78832862059223</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.99018137709636</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5.34396428950367</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5.67314994668565</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5.81003615465794</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5.94278016795931</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>20</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5.76108425723302</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5.72734853253715</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5.5782038732565</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5.43595132759765</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5.56695706332683</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C260" t="n">
+        <v>5.60222303628864</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C261" t="n">
+        <v>5.3621791350326</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C262" t="n">
+        <v>5.22141287907075</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>20</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5.50265866420103</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5.39470047420673</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>20</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5.34827196479991</v>
+      </c>
+      <c r="D265" t="s">
         <v>13</v>
       </c>
     </row>
